--- a/DemoNhanDangChuViet/DemoNhanDangChuViet/Python_Master/BangDiem.xlsx
+++ b/DemoNhanDangChuViet/DemoNhanDangChuViet/Python_Master/BangDiem.xlsx
@@ -4,42 +4,63 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
-    <sheet name="bangdiem2" sheetId="4" r:id="rId2"/>
-    <sheet name="bangdiem1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="bangdiem2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId3"/>
+    <sheet name="bangdiem14" sheetId="9" r:id="rId4"/>
+    <sheet name="bangdiem4" sheetId="8" r:id="rId5"/>
+    <sheet name="bangdiem3" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>BẢNG ĐIỂM</t>
   </si>
   <si>
+    <t>hai</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>bay</t>
+  </si>
+  <si>
+    <t>chin</t>
+  </si>
+  <si>
+    <t>sau</t>
+  </si>
+  <si>
     <t>tam</t>
   </si>
   <si>
-    <t>bay tam</t>
-  </si>
-  <si>
-    <t>chin bay</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>chin</t>
-  </si>
-  <si>
     <t>ba</t>
   </si>
   <si>
-    <t>sau</t>
+    <t>tam nam</t>
+  </si>
+  <si>
+    <t>bay nam</t>
+  </si>
+  <si>
+    <t>nam nam</t>
+  </si>
+  <si>
+    <t>chin nam</t>
+  </si>
+  <si>
+    <t>tam bay</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -393,15 +414,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -411,57 +432,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2002190252</v>
+        <v>2002140005</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>9.5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2002190325</v>
+        <v>2002140007</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2002190079</v>
+        <v>2002140220</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>520052190079</v>
+        <v>2002140294</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>2002140205</v>
+      </c>
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2002140025</v>
+      </c>
+      <c r="B7">
         <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2002140026</v>
+      </c>
+      <c r="B8">
+        <v>8.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2002140233</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2002140033</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -471,15 +536,344 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3001140118</v>
+      </c>
+      <c r="B2">
+        <v>9.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3001140292</v>
+      </c>
+      <c r="B3">
+        <v>8.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3001120112</v>
+      </c>
+      <c r="B4">
+        <v>5.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3001140182</v>
+      </c>
+      <c r="B5">
+        <v>9.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3001140015</v>
+      </c>
+      <c r="B6">
+        <v>9.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3001130094</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3001140196</v>
+      </c>
+      <c r="B8">
+        <v>7.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3001130045</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3001130065</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3001140018</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3001140192</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3001140097</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3001130024</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>300113000</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3001140009</v>
+      </c>
+      <c r="B16">
+        <v>8.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2201150030</v>
+      </c>
+      <c r="B2">
+        <v>7.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>220115001</v>
+      </c>
+      <c r="B3">
+        <v>7.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2201150012</v>
+      </c>
+      <c r="B4">
+        <v>7.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2201152009</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2201152010</v>
+      </c>
+      <c r="B6">
+        <v>8.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2201150015</v>
+      </c>
+      <c r="B7">
+        <v>7.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>220115003</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2201150016</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2201150032</v>
+      </c>
+      <c r="B10">
+        <v>8.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2201150018</v>
+      </c>
+      <c r="B11">
+        <v>7.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2201150019</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A3:D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,32 +883,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2002190023</v>
+        <v>2002140094</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>200219019</v>
+        <v>2002140096</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2002130200</v>
+        <v>2002140098</v>
       </c>
       <c r="B4">
-        <v>983</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -522,46 +916,46 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>420102190322</v>
+        <v>2002140218</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2002130022</v>
+        <v>2002140113</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>200219004236</v>
+        <v>2001140202</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>8.6</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2002190393</v>
+        <v>2002140277</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DemoNhanDangChuViet/DemoNhanDangChuViet/Python_Master/BangDiem.xlsx
+++ b/DemoNhanDangChuViet/DemoNhanDangChuViet/Python_Master/BangDiem.xlsx
@@ -4,60 +4,47 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
-    <sheet name="bangdiem2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId3"/>
-    <sheet name="bangdiem14" sheetId="9" r:id="rId4"/>
-    <sheet name="bangdiem4" sheetId="8" r:id="rId5"/>
-    <sheet name="bangdiem3" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
+    <sheet name="bangdiem7" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>BẢNG ĐIỂM</t>
   </si>
   <si>
+    <t>chin</t>
+  </si>
+  <si>
+    <t>bay nam</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>sau</t>
+  </si>
+  <si>
+    <t>bay</t>
+  </si>
+  <si>
+    <t>chin hai</t>
+  </si>
+  <si>
+    <t>hai tam</t>
+  </si>
+  <si>
     <t>hai</t>
   </si>
   <si>
     <t>nam</t>
-  </si>
-  <si>
-    <t>bay</t>
-  </si>
-  <si>
-    <t>chin</t>
-  </si>
-  <si>
-    <t>sau</t>
-  </si>
-  <si>
-    <t>tam</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>tam nam</t>
-  </si>
-  <si>
-    <t>bay nam</t>
-  </si>
-  <si>
-    <t>nam nam</t>
-  </si>
-  <si>
-    <t>chin nam</t>
-  </si>
-  <si>
-    <t>tam bay</t>
   </si>
   <si>
     <t>null</t>
@@ -404,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -414,141 +401,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2002140005</v>
-      </c>
-      <c r="B2">
-        <v>9.5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2002140007</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2002140220</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002140294</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2002140205</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2002140025</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2002140026</v>
-      </c>
-      <c r="B8">
-        <v>8.6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2002140233</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2002140033</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,98 +414,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3001140118</v>
+        <v>2002140028</v>
       </c>
       <c r="B2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3001140292</v>
+        <v>2002140030</v>
       </c>
       <c r="B3">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3001120112</v>
+        <v>200214003</v>
       </c>
       <c r="B4">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3001140182</v>
+        <v>2002140476</v>
       </c>
       <c r="B5">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3001140015</v>
+        <v>2002130303</v>
       </c>
       <c r="B6">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3001130094</v>
+        <v>2002140296</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3001140196</v>
+        <v>2002140035</v>
       </c>
       <c r="B8">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3001130045</v>
+        <v>2002140042</v>
       </c>
       <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3001130065</v>
+        <v>2002140395</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -660,301 +513,75 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3001140018</v>
+        <v>2002140372</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3001140192</v>
+        <v>2002140266</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3001140097</v>
+        <v>2002140388</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3001130024</v>
+        <v>2002140055</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>300113000</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
+        <v>2002140052</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3001140009</v>
+        <v>200214006</v>
       </c>
       <c r="B16">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2201150030</v>
-      </c>
-      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2002140062</v>
+      </c>
+      <c r="B17">
         <v>7.5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>220115001</v>
-      </c>
-      <c r="B3">
-        <v>7.5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2201150012</v>
-      </c>
-      <c r="B4">
-        <v>7.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2201152009</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2201152010</v>
-      </c>
-      <c r="B6">
-        <v>8.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2201150015</v>
-      </c>
-      <c r="B7">
-        <v>7.5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>220115003</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2201150016</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2201150032</v>
-      </c>
-      <c r="B10">
-        <v>8.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2201150018</v>
-      </c>
-      <c r="B11">
-        <v>7.5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2201150019</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2002140094</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2002140096</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2002140098</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002140218</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2002140113</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2001140202</v>
-      </c>
-      <c r="B7">
-        <v>8.6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2002140277</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
     </row>
